--- a/raw_data/20200818_saline/20200818_Sensor0_Test_33.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_33.xlsx
@@ -1,930 +1,1346 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CA784-9C7E-42F0-B6EC-F14E6DA37ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>28802.888140</v>
+        <v>28802.888139999999</v>
       </c>
       <c r="B2" s="1">
-        <v>8.000802</v>
+        <v>8.0008020000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>905.791000</v>
+        <v>905.79100000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.772000</v>
+        <v>-196.77199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>28813.292751</v>
+        <v>28813.292751000001</v>
       </c>
       <c r="G2" s="1">
-        <v>8.003692</v>
+        <v>8.0036919999999991</v>
       </c>
       <c r="H2" s="1">
-        <v>922.678000</v>
+        <v>922.678</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.823000</v>
+        <v>-166.82300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>28823.742433</v>
+        <v>28823.742432999999</v>
       </c>
       <c r="L2" s="1">
-        <v>8.006595</v>
+        <v>8.0065950000000008</v>
       </c>
       <c r="M2" s="1">
-        <v>944.859000</v>
+        <v>944.85900000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.295000</v>
+        <v>-119.295</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>28834.566164</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.009602</v>
+        <v>8.0096019999999992</v>
       </c>
       <c r="R2" s="1">
-        <v>951.290000</v>
+        <v>951.29</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.769000</v>
+        <v>-103.76900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>28845.108631</v>
+        <v>28845.108630999999</v>
       </c>
       <c r="V2" s="1">
-        <v>8.012530</v>
+        <v>8.0125299999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>957.628000</v>
+        <v>957.62800000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.930500</v>
+        <v>-89.930499999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>28855.266169</v>
+        <v>28855.266168999999</v>
       </c>
       <c r="AA2" s="1">
         <v>8.015352</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.814000</v>
+        <v>964.81399999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.342000</v>
+        <v>-80.341999999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>28865.829466</v>
+        <v>28865.829465999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.018286</v>
+        <v>8.0182859999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.668000</v>
+        <v>969.66800000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.772200</v>
+        <v>-79.772199999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>28875.933501</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.021093</v>
+        <v>8.0210930000000005</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.519000</v>
+        <v>977.51900000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.443700</v>
+        <v>-87.443700000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>28885.848495</v>
+        <v>28885.848494999998</v>
       </c>
       <c r="AP2" s="1">
         <v>8.023847</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.633000</v>
+        <v>986.63300000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.256000</v>
+        <v>-102.256</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>28896.409814</v>
+        <v>28896.409813999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.026781</v>
+        <v>8.0267809999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.926000</v>
+        <v>997.92600000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.707000</v>
+        <v>-123.70699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>28907.219619</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.029783</v>
+        <v>8.0297830000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.470000</v>
+        <v>1007.47</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.401000</v>
+        <v>-142.40100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>28917.858309</v>
+        <v>28917.858308999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.032738</v>
+        <v>8.0327380000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.010000</v>
+        <v>-227.01</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>28928.872966</v>
+        <v>28928.872965999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.035798</v>
+        <v>8.0357979999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1131.510000</v>
+        <v>1131.51</v>
       </c>
       <c r="BL2" s="1">
-        <v>-363.023000</v>
+        <v>-363.02300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>28940.039401</v>
+        <v>28940.039401000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.038900</v>
+        <v>8.0388999999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-573.334000</v>
+        <v>-573.33399999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>28950.817465</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.041894</v>
+        <v>8.0418939999999992</v>
       </c>
       <c r="BU2" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="BV2" s="1">
-        <v>-797.959000</v>
+        <v>-797.95899999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>28961.803389</v>
+        <v>28961.803389000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.044945</v>
+        <v>8.0449450000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.690000</v>
+        <v>1571.69</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1032.290000</v>
+        <v>-1032.29</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>28973.056125</v>
+        <v>28973.056124999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.048071</v>
+        <v>8.0480710000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1980.600000</v>
+        <v>1980.6</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1580.790000</v>
+        <v>-1580.79</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>28803.270556</v>
+        <v>28803.270555999999</v>
       </c>
       <c r="B3" s="1">
-        <v>8.000908</v>
+        <v>8.0009080000000008</v>
       </c>
       <c r="C3" s="1">
-        <v>905.780000</v>
+        <v>905.78</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.720000</v>
+        <v>-196.72</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>28813.986623</v>
+        <v>28813.986623000001</v>
       </c>
       <c r="G3" s="1">
-        <v>8.003885</v>
+        <v>8.0038850000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>922.439000</v>
+        <v>922.43899999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.441000</v>
+        <v>-166.441</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>28824.441826</v>
+        <v>28824.441825999998</v>
       </c>
       <c r="L3" s="1">
-        <v>8.006789</v>
+        <v>8.0067889999999995</v>
       </c>
       <c r="M3" s="1">
-        <v>944.883000</v>
+        <v>944.88300000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.254000</v>
+        <v>-119.254</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>28834.968915</v>
+        <v>28834.968915000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.009714</v>
+        <v>8.0097140000000007</v>
       </c>
       <c r="R3" s="1">
-        <v>951.312000</v>
+        <v>951.31200000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.819000</v>
+        <v>-103.819</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>28845.455798</v>
+        <v>28845.455797999999</v>
       </c>
       <c r="V3" s="1">
-        <v>8.012627</v>
+        <v>8.0126270000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>957.636000</v>
+        <v>957.63599999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.905800</v>
+        <v>-89.905799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>28855.615849</v>
+        <v>28855.615849000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.015449</v>
+        <v>8.0154490000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.796000</v>
+        <v>964.79600000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.132200</v>
+        <v>-80.132199999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>28866.209897</v>
+        <v>28866.209897000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.018392</v>
+        <v>8.0183920000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.692000</v>
+        <v>969.69200000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.768300</v>
+        <v>-79.768299999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>28876.319852</v>
+        <v>28876.319852000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.021200</v>
+        <v>8.0212000000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.527000</v>
+        <v>977.52700000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.412900</v>
+        <v>-87.412899999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>28886.265134</v>
+        <v>28886.265134000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.023963</v>
+        <v>8.0239630000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.635000</v>
+        <v>986.63499999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.256000</v>
+        <v>-102.256</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>28896.521939</v>
+        <v>28896.521938999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.026812</v>
+        <v>8.0268119999999996</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.931000</v>
+        <v>997.93100000000004</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.696000</v>
+        <v>-123.696</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>28907.646178</v>
+        <v>28907.646177999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.029902</v>
+        <v>8.0299019999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.490000</v>
+        <v>1007.49</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.384000</v>
+        <v>-142.38399999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>28918.217940</v>
+        <v>28918.217939999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.032838</v>
+        <v>8.0328379999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.046000</v>
+        <v>-227.04599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>28929.251446</v>
+        <v>28929.251445999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.035903</v>
+        <v>8.0359029999999994</v>
       </c>
       <c r="BK3" s="1">
-        <v>1131.510000</v>
+        <v>1131.51</v>
       </c>
       <c r="BL3" s="1">
-        <v>-363.040000</v>
+        <v>-363.04</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>28940.477368</v>
@@ -933,2418 +1349,2418 @@
         <v>8.039021</v>
       </c>
       <c r="BP3" s="1">
-        <v>1262.510000</v>
+        <v>1262.51</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-573.353000</v>
+        <v>-573.35299999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>28951.271801</v>
+        <v>28951.271800999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.042020</v>
+        <v>8.0420200000000008</v>
       </c>
       <c r="BU3" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="BV3" s="1">
-        <v>-797.969000</v>
+        <v>-797.96900000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>28962.273066</v>
+        <v>28962.273066000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.045076</v>
+        <v>8.0450759999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1032.280000</v>
+        <v>-1032.28</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>28973.591804</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.048220</v>
+        <v>8.0482200000000006</v>
       </c>
       <c r="CE3" s="1">
-        <v>1979.920000</v>
+        <v>1979.92</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1580.170000</v>
+        <v>-1580.17</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>28803.929739</v>
+        <v>28803.929738999999</v>
       </c>
       <c r="B4" s="1">
-        <v>8.001092</v>
+        <v>8.0010919999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>905.863000</v>
+        <v>905.86300000000006</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.662000</v>
+        <v>-196.66200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>28814.361598</v>
       </c>
       <c r="G4" s="1">
-        <v>8.003989</v>
+        <v>8.0039890000000007</v>
       </c>
       <c r="H4" s="1">
-        <v>922.657000</v>
+        <v>922.65700000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.451000</v>
+        <v>-166.45099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>28824.813329</v>
+        <v>28824.813329000001</v>
       </c>
       <c r="L4" s="1">
-        <v>8.006893</v>
+        <v>8.0068929999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>944.755000</v>
+        <v>944.755</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.210000</v>
+        <v>-119.21</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>28835.318593</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.009811</v>
+        <v>8.0098109999999991</v>
       </c>
       <c r="R4" s="1">
-        <v>951.279000</v>
+        <v>951.279</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.858000</v>
+        <v>-103.858</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>28845.800549</v>
       </c>
       <c r="V4" s="1">
-        <v>8.012722</v>
+        <v>8.0127220000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>957.635000</v>
+        <v>957.63499999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.944800</v>
+        <v>-89.944800000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>28855.967047</v>
+        <v>28855.967046999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.015546</v>
+        <v>8.0155460000000005</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.801000</v>
+        <v>964.80100000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.296900</v>
+        <v>-80.296899999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>28866.635497</v>
+        <v>28866.635496999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.018510</v>
+        <v>8.0185099999999991</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.696000</v>
+        <v>969.69600000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.754800</v>
+        <v>-79.754800000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>28876.757323</v>
+        <v>28876.757323000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.021321</v>
+        <v>8.0213210000000004</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.503000</v>
+        <v>977.50300000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.394500</v>
+        <v>-87.394499999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>28886.607871</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.024058</v>
+        <v>8.0240580000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.627000</v>
+        <v>986.62699999999995</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.257000</v>
+        <v>-102.25700000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>28896.876544</v>
+        <v>28896.876543999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.026910</v>
+        <v>8.0269100000000009</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.941000</v>
+        <v>997.94100000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.706000</v>
+        <v>-123.706</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>28908.006771</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.030002</v>
+        <v>8.0300019999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.510000</v>
+        <v>1007.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.388000</v>
+        <v>-142.38800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>28918.580484</v>
+        <v>28918.580483999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.032939</v>
+        <v>8.0329390000000007</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.440000</v>
+        <v>1052.44</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.033000</v>
+        <v>-227.03299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>28930.000372</v>
+        <v>28930.000371999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>8.036111</v>
       </c>
       <c r="BK4" s="1">
-        <v>1131.480000</v>
+        <v>1131.48</v>
       </c>
       <c r="BL4" s="1">
-        <v>-363.034000</v>
+        <v>-363.03399999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>28940.887063</v>
+        <v>28940.887062999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.039135</v>
+        <v>8.0391349999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.530000</v>
+        <v>1262.53</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-573.351000</v>
+        <v>-573.351</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>28951.694921</v>
+        <v>28951.694920999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.042137</v>
+        <v>8.0421370000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>1409.500000</v>
+        <v>1409.5</v>
       </c>
       <c r="BV4" s="1">
-        <v>-797.922000</v>
+        <v>-797.92200000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>28962.708586</v>
+        <v>28962.708586000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.045197</v>
+        <v>8.0451969999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.620000</v>
+        <v>1571.62</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1032.240000</v>
+        <v>-1032.24</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>28974.119019</v>
+        <v>28974.119019000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.048366</v>
+        <v>8.0483659999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>1981.980000</v>
+        <v>1981.98</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1579.160000</v>
+        <v>-1579.16</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>28804.289835</v>
       </c>
       <c r="B5" s="1">
-        <v>8.001192</v>
+        <v>8.0011919999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>905.461000</v>
+        <v>905.46100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.836000</v>
+        <v>-196.83600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>28814.705821</v>
       </c>
       <c r="G5" s="1">
-        <v>8.004085</v>
+        <v>8.0040849999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>922.444000</v>
+        <v>922.44399999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.622000</v>
+        <v>-166.62200000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>28825.161487</v>
+        <v>28825.161487000001</v>
       </c>
       <c r="L5" s="1">
-        <v>8.006989</v>
+        <v>8.0069890000000008</v>
       </c>
       <c r="M5" s="1">
-        <v>944.673000</v>
+        <v>944.673</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.277000</v>
+        <v>-119.277</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>28835.669265</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.009908</v>
+        <v>8.0099079999999994</v>
       </c>
       <c r="R5" s="1">
-        <v>951.285000</v>
+        <v>951.28499999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.835000</v>
+        <v>-103.83499999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>28846.223108</v>
+        <v>28846.223107999998</v>
       </c>
       <c r="V5" s="1">
-        <v>8.012840</v>
+        <v>8.0128400000000006</v>
       </c>
       <c r="W5" s="1">
-        <v>957.694000</v>
+        <v>957.69399999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.912400</v>
+        <v>-89.912400000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>28856.387159</v>
+        <v>28856.387159000002</v>
       </c>
       <c r="AA5" s="1">
         <v>8.015663</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.830000</v>
+        <v>964.83</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.299200</v>
+        <v>-80.299199999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>28866.896857</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.018582</v>
+        <v>8.0185820000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.684000</v>
+        <v>969.68399999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.754500</v>
+        <v>-79.754499999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>28877.039547</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.021400</v>
+        <v>8.0213999999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.522000</v>
+        <v>977.52200000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.412900</v>
+        <v>-87.412899999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>28886.968462</v>
+        <v>28886.968462000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.024158</v>
+        <v>8.0241579999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.639000</v>
+        <v>986.63900000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.244000</v>
+        <v>-102.244</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>28897.240608</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.027011</v>
+        <v>8.0270109999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.941000</v>
+        <v>997.94100000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.702000</v>
+        <v>-123.702</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>28908.364915</v>
+        <v>28908.364914999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.030101</v>
+        <v>8.0301010000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.402000</v>
+        <v>-142.40199999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>28919.306131</v>
+        <v>28919.306131000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.033141</v>
+        <v>8.0331410000000005</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.470000</v>
+        <v>1052.47</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.047000</v>
+        <v>-227.047</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>28930.405108</v>
+        <v>28930.405107999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.036224</v>
+        <v>8.0362240000000007</v>
       </c>
       <c r="BK5" s="1">
-        <v>1131.490000</v>
+        <v>1131.49</v>
       </c>
       <c r="BL5" s="1">
-        <v>-363.057000</v>
+        <v>-363.05700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>28941.294278</v>
+        <v>28941.294278000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.039248</v>
+        <v>8.0392480000000006</v>
       </c>
       <c r="BP5" s="1">
-        <v>1262.510000</v>
+        <v>1262.51</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-573.355000</v>
+        <v>-573.35500000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>28952.110076</v>
+        <v>28952.110076000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.042253</v>
+        <v>8.0422530000000005</v>
       </c>
       <c r="BU5" s="1">
-        <v>1409.480000</v>
+        <v>1409.48</v>
       </c>
       <c r="BV5" s="1">
-        <v>-797.946000</v>
+        <v>-797.94600000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>28963.473392</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.045409</v>
+        <v>8.0454089999999994</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.540000</v>
+        <v>1571.54</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1032.170000</v>
+        <v>-1032.17</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>28975.054972</v>
+        <v>28975.054972000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.048626</v>
+        <v>8.0486260000000005</v>
       </c>
       <c r="CE5" s="1">
-        <v>1980.270000</v>
+        <v>1980.27</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1580.720000</v>
+        <v>-1580.72</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>28804.633067</v>
+        <v>28804.633066999999</v>
       </c>
       <c r="B6" s="1">
-        <v>8.001287</v>
+        <v>8.0012869999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>905.705000</v>
+        <v>905.70500000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.795000</v>
+        <v>-196.79499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>28815.050540</v>
+        <v>28815.05054</v>
       </c>
       <c r="G6" s="1">
-        <v>8.004181</v>
+        <v>8.0041810000000009</v>
       </c>
       <c r="H6" s="1">
-        <v>922.375000</v>
+        <v>922.375</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.986000</v>
+        <v>-166.98599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>28825.506238</v>
+        <v>28825.506238000002</v>
       </c>
       <c r="L6" s="1">
         <v>8.007085</v>
       </c>
       <c r="M6" s="1">
-        <v>944.905000</v>
+        <v>944.90499999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.301000</v>
+        <v>-119.301</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>28836.089346</v>
+        <v>28836.089346000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.010025</v>
+        <v>8.0100250000000006</v>
       </c>
       <c r="R6" s="1">
-        <v>951.269000</v>
+        <v>951.26900000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.817000</v>
+        <v>-103.81699999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>28846.496931</v>
+        <v>28846.496931000001</v>
       </c>
       <c r="V6" s="1">
-        <v>8.012916</v>
+        <v>8.0129160000000006</v>
       </c>
       <c r="W6" s="1">
-        <v>957.694000</v>
+        <v>957.69399999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.965100</v>
+        <v>-89.965100000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>28856.678522</v>
+        <v>28856.678521999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.015744</v>
+        <v>8.0157439999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.822000</v>
+        <v>964.822</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.230700</v>
+        <v>-80.230699999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>28867.237608</v>
+        <v>28867.237607999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.018677</v>
+        <v>8.0186770000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.648000</v>
+        <v>969.64800000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.719800</v>
+        <v>-79.719800000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>28877.383274</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.021495</v>
+        <v>8.0214949999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.525000</v>
+        <v>977.52499999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.422000</v>
+        <v>-87.421999999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>28887.329085</v>
+        <v>28887.329085000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.024258</v>
+        <v>8.0242579999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.623000</v>
+        <v>986.62300000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.260000</v>
+        <v>-102.26</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>28897.970752</v>
+        <v>28897.970752000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.027214</v>
+        <v>8.0272140000000007</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.962000</v>
+        <v>997.96199999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.697000</v>
+        <v>-123.697</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>28909.082592</v>
+        <v>28909.082591999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.030301</v>
+        <v>8.0303009999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.500000</v>
+        <v>1007.5</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.368000</v>
+        <v>-142.36799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>28919.687554</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.033247</v>
+        <v>8.0332469999999994</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.440000</v>
+        <v>1052.44</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.027000</v>
+        <v>-227.02699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>28930.781108</v>
+        <v>28930.781107999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.036328</v>
+        <v>8.0363279999999992</v>
       </c>
       <c r="BK6" s="1">
-        <v>1131.500000</v>
+        <v>1131.5</v>
       </c>
       <c r="BL6" s="1">
-        <v>-363.022000</v>
+        <v>-363.02199999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>28941.706949</v>
+        <v>28941.706948999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.039363</v>
+        <v>8.0393629999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1262.530000</v>
+        <v>1262.53</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-573.324000</v>
+        <v>-573.32399999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>28952.828278</v>
+        <v>28952.828278000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.042452</v>
+        <v>8.0424520000000008</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="BV6" s="1">
-        <v>-797.983000</v>
+        <v>-797.98299999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>28963.608792</v>
+        <v>28963.608791999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.045447</v>
+        <v>8.0454469999999993</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.710000</v>
+        <v>1571.71</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1032.400000</v>
+        <v>-1032.4000000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>28975.211209</v>
+        <v>28975.211209000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.048670</v>
+        <v>8.0486699999999995</v>
       </c>
       <c r="CE6" s="1">
-        <v>1980.670000</v>
+        <v>1980.67</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1578.440000</v>
+        <v>-1578.44</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>28804.975337</v>
       </c>
       <c r="B7" s="1">
-        <v>8.001382</v>
+        <v>8.0013819999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>905.725000</v>
+        <v>905.72500000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.856000</v>
+        <v>-196.85599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>28815.474158</v>
+        <v>28815.474158000001</v>
       </c>
       <c r="G7" s="1">
-        <v>8.004298</v>
+        <v>8.0042980000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>922.860000</v>
+        <v>922.86</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.691000</v>
+        <v>-166.691</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>28825.928341</v>
+        <v>28825.928340999999</v>
       </c>
       <c r="L7" s="1">
-        <v>8.007202</v>
+        <v>8.0072019999999995</v>
       </c>
       <c r="M7" s="1">
-        <v>944.834000</v>
+        <v>944.83399999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.103000</v>
+        <v>-119.10299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>28836.367600</v>
+        <v>28836.367600000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.010102</v>
+        <v>8.0101019999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>951.307000</v>
+        <v>951.30700000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.772000</v>
+        <v>-103.77200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>28846.841651</v>
+        <v>28846.841650999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.013012</v>
+        <v>8.0130119999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>957.633000</v>
+        <v>957.63300000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.825600</v>
+        <v>-89.825599999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>28857.028955</v>
+        <v>28857.028955000002</v>
       </c>
       <c r="AA7" s="1">
         <v>8.015841</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.657000</v>
+        <v>964.65700000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.204000</v>
+        <v>-80.203999999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>28867.583352</v>
+        <v>28867.583352000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.018773</v>
+        <v>8.0187729999999995</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.655000</v>
+        <v>969.65499999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.753600</v>
+        <v>-79.753600000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>28877.921966</v>
+        <v>28877.921966000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.021645</v>
+        <v>8.0216449999999995</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.534000</v>
+        <v>977.53399999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.416800</v>
+        <v>-87.416799999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>28888.050237</v>
+        <v>28888.050236999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.024458</v>
+        <v>8.0244579999999992</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.636000</v>
+        <v>986.63599999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.263000</v>
+        <v>-102.26300000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>28898.360080</v>
+        <v>28898.360079999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.027322</v>
+        <v>8.0273219999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.922000</v>
+        <v>997.92200000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.693000</v>
+        <v>-123.693</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>28909.445664</v>
+        <v>28909.445663999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.030402</v>
+        <v>8.0304020000000005</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.490000</v>
+        <v>1007.49</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.394000</v>
+        <v>-142.39400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>28920.049138</v>
+        <v>28920.049137999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.033347</v>
+        <v>8.0333469999999991</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.460000</v>
+        <v>1052.46</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.027000</v>
+        <v>-227.02699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>28931.462082</v>
+        <v>28931.462081999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.036517</v>
+        <v>8.0365169999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1131.490000</v>
+        <v>1131.49</v>
       </c>
       <c r="BL7" s="1">
-        <v>-363.055000</v>
+        <v>-363.05500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>28942.498070</v>
+        <v>28942.498070000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.039583</v>
+        <v>8.0395830000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1262.500000</v>
+        <v>1262.5</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-573.355000</v>
+        <v>-573.35500000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>28952.941363</v>
+        <v>28952.941363000002</v>
       </c>
       <c r="BT7" s="1">
         <v>8.042484</v>
       </c>
       <c r="BU7" s="1">
-        <v>1409.510000</v>
+        <v>1409.51</v>
       </c>
       <c r="BV7" s="1">
-        <v>-797.923000</v>
+        <v>-797.923</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>28964.032871</v>
+        <v>28964.032870999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.045565</v>
+        <v>8.0455649999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1032.390000</v>
+        <v>-1032.3900000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>28975.737465</v>
+        <v>28975.737464999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.048816</v>
+        <v>8.0488160000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>1981.020000</v>
+        <v>1981.02</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1578.880000</v>
+        <v>-1578.88</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>28805.402393</v>
       </c>
       <c r="B8" s="1">
-        <v>8.001501</v>
+        <v>8.0015009999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>905.828000</v>
+        <v>905.82799999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.013000</v>
+        <v>-197.01300000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>28815.740475</v>
+        <v>28815.740474999999</v>
       </c>
       <c r="G8" s="1">
         <v>8.004372</v>
       </c>
       <c r="H8" s="1">
-        <v>922.888000</v>
+        <v>922.88800000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.667000</v>
+        <v>-166.667</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>28826.221470</v>
+        <v>28826.22147</v>
       </c>
       <c r="L8" s="1">
-        <v>8.007284</v>
+        <v>8.0072840000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>944.919000</v>
+        <v>944.91899999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.187000</v>
+        <v>-119.187</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>28836.714800</v>
+        <v>28836.714800000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.010199</v>
+        <v>8.0101990000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>951.316000</v>
+        <v>951.31600000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.796000</v>
+        <v>-103.79600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>28847.185843</v>
+        <v>28847.185842999999</v>
       </c>
       <c r="V8" s="1">
-        <v>8.013107</v>
+        <v>8.0131069999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>957.635000</v>
+        <v>957.63499999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.994900</v>
+        <v>-89.994900000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>28857.378648</v>
+        <v>28857.378648000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.015939</v>
+        <v>8.0159389999999995</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.741000</v>
+        <v>964.74099999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.311300</v>
+        <v>-80.311300000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>28868.268328</v>
+        <v>28868.268327999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.018963</v>
+        <v>8.0189629999999994</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.682000</v>
+        <v>969.68200000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.772500</v>
+        <v>-79.772499999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>28878.081641</v>
+        <v>28878.081641000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.021689</v>
+        <v>8.0216890000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.508000</v>
+        <v>977.50800000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.421400</v>
+        <v>-87.421400000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>28888.409835</v>
+        <v>28888.409834999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.024558</v>
+        <v>8.0245580000000007</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.617000</v>
+        <v>986.61699999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.254000</v>
+        <v>-102.254</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>28898.726622</v>
+        <v>28898.726621999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.027424</v>
+        <v>8.0274239999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.928000</v>
+        <v>997.928</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.705000</v>
+        <v>-123.705</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>28909.800303</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.030500</v>
+        <v>8.0305</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.490000</v>
+        <v>1007.49</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.370000</v>
+        <v>-142.37</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>28920.711826</v>
+        <v>28920.711825999999</v>
       </c>
       <c r="BE8" s="1">
         <v>8.033531</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.016000</v>
+        <v>-227.01599999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>28931.575170</v>
+        <v>28931.57517</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.036549</v>
+        <v>8.0365490000000008</v>
       </c>
       <c r="BK8" s="1">
-        <v>1131.500000</v>
+        <v>1131.5</v>
       </c>
       <c r="BL8" s="1">
-        <v>-363.061000</v>
+        <v>-363.06099999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>28942.952404</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.039709</v>
+        <v>8.0397090000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.490000</v>
+        <v>1262.49</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-573.377000</v>
+        <v>-573.37699999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>28953.378310</v>
+        <v>28953.37831</v>
       </c>
       <c r="BT8" s="1">
         <v>8.042605</v>
       </c>
       <c r="BU8" s="1">
-        <v>1409.510000</v>
+        <v>1409.51</v>
       </c>
       <c r="BV8" s="1">
-        <v>-797.978000</v>
+        <v>-797.97799999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>28964.452493</v>
+        <v>28964.452493000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.045681</v>
+        <v>8.0456810000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.600000</v>
+        <v>1571.6</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1032.530000</v>
+        <v>-1032.53</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>28976.256279</v>
+        <v>28976.256279000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.048960</v>
+        <v>8.0489599999999992</v>
       </c>
       <c r="CE8" s="1">
-        <v>1979.640000</v>
+        <v>1979.64</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1579.070000</v>
+        <v>-1579.07</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>28805.671722</v>
+        <v>28805.671721999999</v>
       </c>
       <c r="B9" s="1">
-        <v>8.001575</v>
+        <v>8.0015750000000008</v>
       </c>
       <c r="C9" s="1">
-        <v>905.736000</v>
+        <v>905.73599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.784000</v>
+        <v>-196.78399999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>28816.085724</v>
       </c>
       <c r="G9" s="1">
-        <v>8.004468</v>
+        <v>8.0044679999999993</v>
       </c>
       <c r="H9" s="1">
-        <v>922.483000</v>
+        <v>922.48299999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.731000</v>
+        <v>-166.73099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>28826.566189</v>
+        <v>28826.566189000001</v>
       </c>
       <c r="L9" s="1">
-        <v>8.007379</v>
+        <v>8.0073790000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>944.671000</v>
+        <v>944.67100000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.208000</v>
+        <v>-119.208</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>28837.063631</v>
+        <v>28837.063631000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.010295</v>
+        <v>8.0102949999999993</v>
       </c>
       <c r="R9" s="1">
-        <v>951.278000</v>
+        <v>951.27800000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.839000</v>
+        <v>-103.839</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>28847.872305</v>
+        <v>28847.872305000001</v>
       </c>
       <c r="V9" s="1">
-        <v>8.013298</v>
+        <v>8.0132980000000007</v>
       </c>
       <c r="W9" s="1">
-        <v>957.640000</v>
+        <v>957.64</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.942200</v>
+        <v>-89.9422</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>28858.072037</v>
+        <v>28858.072037000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.016131</v>
+        <v>8.0161309999999997</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.775000</v>
+        <v>964.77499999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.339700</v>
+        <v>-80.339699999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>28868.616982</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.019060</v>
+        <v>8.0190599999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.604000</v>
+        <v>969.60400000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.773100</v>
+        <v>-79.773099999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>28878.434298</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.021787</v>
+        <v>8.0217869999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.526000</v>
+        <v>977.52599999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.423600</v>
+        <v>-87.423599999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>28888.766490</v>
+        <v>28888.766490000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.024657</v>
+        <v>8.0246569999999995</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.634000</v>
+        <v>986.63400000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.268000</v>
+        <v>-102.268</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>28899.399197</v>
+        <v>28899.399196999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.027611</v>
+        <v>8.0276110000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.919000</v>
+        <v>997.91899999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.702000</v>
+        <v>-123.702</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>28910.391071</v>
+        <v>28910.391070999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.030664</v>
+        <v>8.0306639999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.470000</v>
+        <v>1007.47</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.417000</v>
+        <v>-142.417</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>28921.164144</v>
+        <v>28921.164143999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.033657</v>
+        <v>8.0336569999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.042000</v>
+        <v>-227.042</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>28931.938440</v>
+        <v>28931.938440000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.036650</v>
+        <v>8.0366499999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1131.480000</v>
+        <v>1131.48</v>
       </c>
       <c r="BL9" s="1">
-        <v>-363.014000</v>
+        <v>-363.01400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>28943.349203</v>
+        <v>28943.349203000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.039819</v>
+        <v>8.0398189999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.510000</v>
+        <v>1262.51</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-573.349000</v>
+        <v>-573.34900000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>28953.788501</v>
+        <v>28953.788500999999</v>
       </c>
       <c r="BT9" s="1">
         <v>8.042719</v>
       </c>
       <c r="BU9" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="BV9" s="1">
-        <v>-797.938000</v>
+        <v>-797.93799999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>28964.907815</v>
+        <v>28964.907814999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.045808</v>
+        <v>8.0458079999999992</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1032.350000</v>
+        <v>-1032.3499999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>28976.773607</v>
+        <v>28976.773606999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.049104</v>
+        <v>8.0491039999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1979.930000</v>
+        <v>1979.93</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1580.670000</v>
+        <v>-1580.67</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>28806.017433</v>
+        <v>28806.017433000001</v>
       </c>
       <c r="B10" s="1">
-        <v>8.001672</v>
+        <v>8.0016719999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>905.702000</v>
+        <v>905.702</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.906000</v>
+        <v>-196.90600000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>28816.429419</v>
       </c>
       <c r="G10" s="1">
-        <v>8.004564</v>
+        <v>8.0045640000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>922.027000</v>
+        <v>922.02700000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.645000</v>
+        <v>-166.64500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>28826.909886</v>
+        <v>28826.909886000001</v>
       </c>
       <c r="L10" s="1">
-        <v>8.007475</v>
+        <v>8.0074749999999995</v>
       </c>
       <c r="M10" s="1">
-        <v>944.575000</v>
+        <v>944.57500000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.485000</v>
+        <v>-119.485</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>28837.759406</v>
+        <v>28837.759406000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.010489</v>
+        <v>8.0104889999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>951.285000</v>
+        <v>951.28499999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.835000</v>
+        <v>-103.83499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>28848.215537</v>
       </c>
       <c r="V10" s="1">
-        <v>8.013393</v>
+        <v>8.0133930000000007</v>
       </c>
       <c r="W10" s="1">
-        <v>957.615000</v>
+        <v>957.61500000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.830000</v>
+        <v>-89.83</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>28858.419273</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.016228</v>
+        <v>8.0162279999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.606000</v>
+        <v>964.60599999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.422800</v>
+        <v>-80.422799999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>28868.961702</v>
+        <v>28868.961702000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.019156</v>
+        <v>8.0191560000000006</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.666000</v>
+        <v>969.66600000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.789700</v>
+        <v>-79.789699999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>28879.086076</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.021968</v>
+        <v>8.0219679999999993</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.527000</v>
+        <v>977.52700000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.438800</v>
+        <v>-87.438800000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>28889.434570</v>
+        <v>28889.434570000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.024843</v>
+        <v>8.0248430000000006</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.626000</v>
+        <v>986.62599999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>28899.851581</v>
+        <v>28899.851580999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.027737</v>
+        <v>8.0277370000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.931000</v>
+        <v>997.93100000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.713000</v>
+        <v>-123.71299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>28910.516030</v>
+        <v>28910.516029999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.030699</v>
+        <v>8.0306990000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.385000</v>
+        <v>-142.38499999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>28921.527247</v>
+        <v>28921.527247000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.033758</v>
+        <v>8.0337580000000006</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.029000</v>
+        <v>-227.029</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>28932.315698</v>
+        <v>28932.315697999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.036754</v>
+        <v>8.0367540000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1131.490000</v>
+        <v>1131.49</v>
       </c>
       <c r="BL10" s="1">
-        <v>-363.032000</v>
+        <v>-363.03199999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>28943.773811</v>
+        <v>28943.773810999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.039937</v>
+        <v>8.0399370000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-573.345000</v>
+        <v>-573.34500000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>28954.226469</v>
+        <v>28954.226469000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.042841</v>
+        <v>8.0428409999999992</v>
       </c>
       <c r="BU10" s="1">
-        <v>1409.490000</v>
+        <v>1409.49</v>
       </c>
       <c r="BV10" s="1">
-        <v>-797.903000</v>
+        <v>-797.90300000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>28965.356230</v>
+        <v>28965.356230000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.045932</v>
+        <v>8.0459320000000005</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.590000</v>
+        <v>1571.59</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1032.360000</v>
+        <v>-1032.3599999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>28977.289942</v>
+        <v>28977.289941999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.049247</v>
+        <v>8.0492469999999994</v>
       </c>
       <c r="CE10" s="1">
-        <v>1981.820000</v>
+        <v>1981.82</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1580.100000</v>
+        <v>-1580.1</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>28806.362154</v>
+        <v>28806.362153999999</v>
       </c>
       <c r="B11" s="1">
-        <v>8.001767</v>
+        <v>8.0017669999999992</v>
       </c>
       <c r="C11" s="1">
-        <v>905.644000</v>
+        <v>905.64400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.841000</v>
+        <v>-196.84100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>28817.117370</v>
+        <v>28817.11737</v>
       </c>
       <c r="G11" s="1">
-        <v>8.004755</v>
+        <v>8.0047549999999994</v>
       </c>
       <c r="H11" s="1">
-        <v>922.579000</v>
+        <v>922.57899999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.915000</v>
+        <v>-166.91499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>28827.601308</v>
+        <v>28827.601308000001</v>
       </c>
       <c r="L11" s="1">
-        <v>8.007667</v>
+        <v>8.0076669999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>944.815000</v>
+        <v>944.81500000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.064000</v>
+        <v>-119.06399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>28838.111534</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.010587</v>
+        <v>8.0105869999999992</v>
       </c>
       <c r="R11" s="1">
-        <v>951.265000</v>
+        <v>951.26499999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.860000</v>
+        <v>-103.86</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>28848.560752</v>
+        <v>28848.560752000001</v>
       </c>
       <c r="V11" s="1">
-        <v>8.013489</v>
+        <v>8.0134889999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>957.628000</v>
+        <v>957.62800000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.958300</v>
+        <v>-89.958299999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>28858.771923</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.016326</v>
+        <v>8.0163259999999994</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.783000</v>
+        <v>964.78300000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.273500</v>
+        <v>-80.273499999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>28869.623364</v>
+        <v>28869.623363999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.019340</v>
+        <v>8.0193399999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.705000</v>
+        <v>969.70500000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.751900</v>
+        <v>-79.751900000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>28879.478375</v>
+        <v>28879.478374999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.022077</v>
+        <v>8.0220769999999995</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.532000</v>
+        <v>977.53200000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.435000</v>
+        <v>-87.435000000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>28889.883450</v>
+        <v>28889.883450000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.024968</v>
+        <v>8.0249679999999994</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.642000</v>
+        <v>986.64200000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.246000</v>
+        <v>-102.246</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>28900.216636</v>
+        <v>28900.216636000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.027838</v>
+        <v>8.0278379999999991</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.934000</v>
+        <v>997.93399999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.717000</v>
+        <v>-123.717</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>28910.874647</v>
+        <v>28910.874647000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>8.030799</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.394000</v>
+        <v>-142.39400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>28921.888815</v>
+        <v>28921.888814999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.033858</v>
+        <v>8.0338580000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.440000</v>
+        <v>1052.44</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.022000</v>
+        <v>-227.02199999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>28932.746225</v>
+        <v>28932.746224999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.036874</v>
+        <v>8.0368739999999992</v>
       </c>
       <c r="BK11" s="1">
-        <v>1131.470000</v>
+        <v>1131.47</v>
       </c>
       <c r="BL11" s="1">
-        <v>-363.050000</v>
+        <v>-363.05</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>28944.168099</v>
+        <v>28944.168098999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.040047</v>
+        <v>8.0400469999999995</v>
       </c>
       <c r="BP11" s="1">
-        <v>1262.510000</v>
+        <v>1262.51</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-573.359000</v>
+        <v>-573.35900000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>28954.643147</v>
+        <v>28954.643146999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.042956</v>
+        <v>8.0429560000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="BV11" s="1">
-        <v>-797.890000</v>
+        <v>-797.89</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>28965.787221</v>
+        <v>28965.787220999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.046052</v>
+        <v>8.0460519999999995</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.700000</v>
+        <v>1571.7</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1032.460000</v>
+        <v>-1032.46</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>28977.809750</v>
+        <v>28977.80975</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.049392</v>
+        <v>8.0493919999999992</v>
       </c>
       <c r="CE11" s="1">
-        <v>1979.340000</v>
+        <v>1979.34</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1579.340000</v>
+        <v>-1579.34</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>28807.040187</v>
+        <v>28807.040186999999</v>
       </c>
       <c r="B12" s="1">
-        <v>8.001956</v>
+        <v>8.0019559999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>905.671000</v>
+        <v>905.67100000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.775000</v>
+        <v>-196.77500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>28817.465365</v>
       </c>
       <c r="G12" s="1">
-        <v>8.004851</v>
+        <v>8.0048510000000004</v>
       </c>
       <c r="H12" s="1">
-        <v>922.741000</v>
+        <v>922.74099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.954000</v>
+        <v>-166.95400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>28827.950987</v>
       </c>
       <c r="L12" s="1">
-        <v>8.007764</v>
+        <v>8.0077639999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>944.928000</v>
+        <v>944.928</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.245000</v>
+        <v>-119.245</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>28838.455300</v>
+        <v>28838.455300000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.010682</v>
+        <v>8.0106819999999992</v>
       </c>
       <c r="R12" s="1">
-        <v>951.239000</v>
+        <v>951.23900000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.799000</v>
+        <v>-103.79900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>28849.217985</v>
+        <v>28849.217984999999</v>
       </c>
       <c r="V12" s="1">
-        <v>8.013672</v>
+        <v>8.0136719999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>957.667000</v>
+        <v>957.66700000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.993600</v>
+        <v>-89.993600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>28859.426145</v>
+        <v>28859.426145000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.016507</v>
+        <v>8.0165070000000007</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.793000</v>
+        <v>964.79300000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.340300</v>
+        <v>-80.340299999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>28869.989908</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.019442</v>
+        <v>8.0194419999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.632000</v>
+        <v>969.63199999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.765600</v>
+        <v>-79.765600000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>28879.829047</v>
+        <v>28879.829046999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.022175</v>
+        <v>8.0221750000000007</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.508000</v>
+        <v>977.50800000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.443200</v>
+        <v>-87.443200000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>28890.246025</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.025068</v>
+        <v>8.0250679999999992</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.624000</v>
+        <v>986.62400000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.249000</v>
+        <v>-102.249</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>28900.581659</v>
+        <v>28900.581658999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.027939</v>
+        <v>8.0279389999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.918000</v>
+        <v>997.91800000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.703000</v>
+        <v>-123.703</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>28911.290339</v>
+        <v>28911.290338999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.030914</v>
+        <v>8.0309139999999992</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.470000</v>
+        <v>1007.47</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.378000</v>
+        <v>-142.37799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>28922.313871</v>
+        <v>28922.313870999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.033976</v>
+        <v>8.0339759999999991</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.041000</v>
+        <v>-227.041</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>28933.096442</v>
+        <v>28933.096441999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.036971</v>
+        <v>8.0369709999999994</v>
       </c>
       <c r="BK12" s="1">
-        <v>1131.480000</v>
+        <v>1131.48</v>
       </c>
       <c r="BL12" s="1">
-        <v>-363.055000</v>
+        <v>-363.05500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>28944.590716</v>
+        <v>28944.590715999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.040164</v>
+        <v>8.0401640000000008</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-573.374000</v>
+        <v>-573.37400000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>28955.068707</v>
+        <v>28955.068706999999</v>
       </c>
       <c r="BT12" s="1">
         <v>8.043075</v>
       </c>
       <c r="BU12" s="1">
-        <v>1409.510000</v>
+        <v>1409.51</v>
       </c>
       <c r="BV12" s="1">
-        <v>-797.913000</v>
+        <v>-797.91300000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>28966.207829</v>
+        <v>28966.207828999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.046169</v>
+        <v>8.0461690000000008</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.660000</v>
+        <v>1571.66</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1032.340000</v>
+        <v>-1032.3399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>28978.349892</v>
+        <v>28978.349891999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.049542</v>
+        <v>8.0495420000000006</v>
       </c>
       <c r="CE12" s="1">
-        <v>1980.900000</v>
+        <v>1980.9</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1580.410000</v>
+        <v>-1580.41</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>28807.383055</v>
+        <v>28807.383054999998</v>
       </c>
       <c r="B13" s="1">
-        <v>8.002051</v>
+        <v>8.0020509999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>905.766000</v>
+        <v>905.76599999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.963000</v>
+        <v>-196.96299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>28817.813753</v>
+        <v>28817.813752999999</v>
       </c>
       <c r="G13" s="1">
-        <v>8.004948</v>
+        <v>8.0049480000000006</v>
       </c>
       <c r="H13" s="1">
-        <v>922.699000</v>
+        <v>922.69899999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.509000</v>
+        <v>-166.50899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>28828.612154</v>
+        <v>28828.612153999999</v>
       </c>
       <c r="L13" s="1">
-        <v>8.007948</v>
+        <v>8.0079480000000007</v>
       </c>
       <c r="M13" s="1">
-        <v>944.632000</v>
+        <v>944.63199999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.167000</v>
+        <v>-119.167</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>28839.118413</v>
@@ -3353,739 +3769,739 @@
         <v>8.010866</v>
       </c>
       <c r="R13" s="1">
-        <v>951.319000</v>
+        <v>951.31899999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.790000</v>
+        <v>-103.79</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>28849.596895</v>
+        <v>28849.596894999999</v>
       </c>
       <c r="V13" s="1">
-        <v>8.013777</v>
+        <v>8.0137769999999993</v>
       </c>
       <c r="W13" s="1">
-        <v>957.682000</v>
+        <v>957.68200000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.933300</v>
+        <v>-89.933300000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>28859.817457</v>
+        <v>28859.817457000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.016616</v>
+        <v>8.0166160000000009</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.896000</v>
+        <v>964.89599999999996</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.332700</v>
+        <v>-80.332700000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>28870.334132</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.019537</v>
+        <v>8.0195369999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.655000</v>
+        <v>969.65499999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.793300</v>
+        <v>-79.793300000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>28880.178726</v>
+        <v>28880.178725999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.022272</v>
+        <v>8.0222719999999992</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.519000</v>
+        <v>977.51900000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.432900</v>
+        <v>-87.432900000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>28890.601656</v>
+        <v>28890.601655999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.025167</v>
+        <v>8.0251669999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.633000</v>
+        <v>986.63300000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.268000</v>
+        <v>-102.268</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>28901.006732</v>
+        <v>28901.006732000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.028057</v>
+        <v>8.0280570000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.927000</v>
+        <v>997.92700000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.711000</v>
+        <v>-123.711</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>28911.594333</v>
+        <v>28911.594333000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.030998</v>
+        <v>8.0309980000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.378000</v>
+        <v>-142.37799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>28922.610478</v>
+        <v>28922.610477999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.034058</v>
+        <v>8.0340579999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.470000</v>
+        <v>1052.47</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.024000</v>
+        <v>-227.024</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>28933.468432</v>
+        <v>28933.468432000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.037075</v>
+        <v>8.0370749999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1131.440000</v>
+        <v>1131.44</v>
       </c>
       <c r="BL13" s="1">
-        <v>-363.055000</v>
+        <v>-363.05500000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>28944.990465</v>
+        <v>28944.990464999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.040275</v>
+        <v>8.0402749999999994</v>
       </c>
       <c r="BP13" s="1">
-        <v>1262.550000</v>
+        <v>1262.55</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-573.353000</v>
+        <v>-573.35299999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>28955.482835</v>
+        <v>28955.482834999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.043190</v>
+        <v>8.0431899999999992</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.520000</v>
+        <v>1409.52</v>
       </c>
       <c r="BV13" s="1">
-        <v>-797.946000</v>
+        <v>-797.94600000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>28966.629429</v>
+        <v>28966.629429000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.046286</v>
+        <v>8.0462860000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.690000</v>
+        <v>1571.69</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1032.500000</v>
+        <v>-1032.5</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>28978.890532</v>
+        <v>28978.890532000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.049692</v>
+        <v>8.0496920000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>1981.010000</v>
+        <v>1981.01</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1578.720000</v>
+        <v>-1578.72</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>28807.727145</v>
+        <v>28807.727145000001</v>
       </c>
       <c r="B14" s="1">
-        <v>8.002146</v>
+        <v>8.0021459999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>905.694000</v>
+        <v>905.69399999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.846000</v>
+        <v>-196.846</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>28818.478392</v>
+        <v>28818.478392000001</v>
       </c>
       <c r="G14" s="1">
-        <v>8.005133</v>
+        <v>8.0051330000000007</v>
       </c>
       <c r="H14" s="1">
-        <v>922.398000</v>
+        <v>922.39800000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.811000</v>
+        <v>-166.81100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>28828.985147</v>
+        <v>28828.985146999999</v>
       </c>
       <c r="L14" s="1">
         <v>8.008051</v>
       </c>
       <c r="M14" s="1">
-        <v>944.853000</v>
+        <v>944.85299999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.087000</v>
+        <v>-119.087</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>28839.502812</v>
+        <v>28839.502811999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.010973</v>
+        <v>8.0109729999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>951.340000</v>
+        <v>951.34</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.817000</v>
+        <v>-103.81699999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>28849.943630</v>
+        <v>28849.943630000002</v>
       </c>
       <c r="V14" s="1">
-        <v>8.013873</v>
+        <v>8.0138730000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>957.684000</v>
+        <v>957.68399999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.953800</v>
+        <v>-89.953800000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>28860.164161</v>
+        <v>28860.164161000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.016712</v>
+        <v>8.0167120000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.792000</v>
+        <v>964.79200000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.234600</v>
+        <v>-80.2346</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>28870.677861</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.019633</v>
+        <v>8.0196330000000007</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.679000</v>
+        <v>969.67899999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.795500</v>
+        <v>-79.795500000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>28880.602806</v>
+        <v>28880.602805999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.022390</v>
+        <v>8.0223899999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.517000</v>
+        <v>977.51700000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.426200</v>
+        <v>-87.426199999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>28891.024746</v>
+        <v>28891.024745999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.025285</v>
+        <v>8.0252850000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.643000</v>
+        <v>986.64300000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.248000</v>
+        <v>-102.248</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>28901.310284</v>
+        <v>28901.310283999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.028142</v>
+        <v>8.0281420000000008</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.917000</v>
+        <v>997.91700000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.692000</v>
+        <v>-123.69199999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>28911.950958</v>
+        <v>28911.950958000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.031097</v>
+        <v>8.0310970000000008</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.460000</v>
+        <v>1007.46</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.385000</v>
+        <v>-142.38499999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>28922.974542</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.034160</v>
+        <v>8.03416</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.041000</v>
+        <v>-227.041</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>28933.844369</v>
+        <v>28933.844368999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.037179</v>
+        <v>8.0371790000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1131.490000</v>
+        <v>1131.49</v>
       </c>
       <c r="BL14" s="1">
-        <v>-363.051000</v>
+        <v>-363.05099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>28945.409115</v>
+        <v>28945.409114999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.040391</v>
+        <v>8.0403909999999996</v>
       </c>
       <c r="BP14" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-573.371000</v>
+        <v>-573.37099999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>28955.921298</v>
+        <v>28955.921298000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.043311</v>
+        <v>8.0433109999999992</v>
       </c>
       <c r="BU14" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-797.848000</v>
+        <v>-797.84799999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>28967.084756</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.046412</v>
+        <v>8.0464120000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.710000</v>
+        <v>1571.71</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1032.370000</v>
+        <v>-1032.3699999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>28979.428195</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.049841</v>
+        <v>8.0498410000000007</v>
       </c>
       <c r="CE14" s="1">
-        <v>1979.910000</v>
+        <v>1979.91</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1580.110000</v>
+        <v>-1580.11</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>28808.376405</v>
+        <v>28808.376404999999</v>
       </c>
       <c r="B15" s="1">
-        <v>8.002327</v>
+        <v>8.0023269999999993</v>
       </c>
       <c r="C15" s="1">
-        <v>905.528000</v>
+        <v>905.52800000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.946000</v>
+        <v>-196.946</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>28818.846952</v>
       </c>
       <c r="G15" s="1">
-        <v>8.005235</v>
+        <v>8.0052350000000008</v>
       </c>
       <c r="H15" s="1">
-        <v>922.748000</v>
+        <v>922.74800000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.624000</v>
+        <v>-166.624</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>28829.330968</v>
+        <v>28829.330967999998</v>
       </c>
       <c r="L15" s="1">
-        <v>8.008147</v>
+        <v>8.0081469999999992</v>
       </c>
       <c r="M15" s="1">
-        <v>944.680000</v>
+        <v>944.68</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.463000</v>
+        <v>-119.46299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>28839.851995</v>
+        <v>28839.851995000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.011070</v>
+        <v>8.0110700000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>951.302000</v>
+        <v>951.30200000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.853000</v>
+        <v>-103.85299999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>28850.287855</v>
+        <v>28850.287854999999</v>
       </c>
       <c r="V15" s="1">
-        <v>8.013969</v>
+        <v>8.0139689999999995</v>
       </c>
       <c r="W15" s="1">
-        <v>957.697000</v>
+        <v>957.697</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.909800</v>
+        <v>-89.909800000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>28860.514337</v>
+        <v>28860.514337000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.016810</v>
+        <v>8.0168099999999995</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.816000</v>
+        <v>964.81600000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.367900</v>
+        <v>-80.367900000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>28871.100979</v>
+        <v>28871.100978999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.019750</v>
+        <v>8.0197500000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.689000</v>
+        <v>969.68899999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.727700</v>
+        <v>-79.727699999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>28880.882053</v>
+        <v>28880.882053000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.022467</v>
+        <v>8.0224670000000007</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.508000</v>
+        <v>977.50800000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.412800</v>
+        <v>-87.412800000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>28891.325524</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.025368</v>
+        <v>8.0253680000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.646000</v>
+        <v>986.64599999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.275000</v>
+        <v>-102.27500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>28901.678810</v>
+        <v>28901.678810000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.028244</v>
+        <v>8.0282440000000008</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.926000</v>
+        <v>997.92600000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.695000</v>
+        <v>-123.69499999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>28912.312076</v>
+        <v>28912.312075999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.031198</v>
+        <v>8.0311979999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.470000</v>
+        <v>1007.47</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.380000</v>
+        <v>-142.38</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>28923.332654</v>
+        <v>28923.332654000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.034259</v>
+        <v>8.0342590000000005</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.470000</v>
+        <v>1052.47</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.038000</v>
+        <v>-227.03800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>28934.615150</v>
+        <v>28934.615150000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.037393</v>
+        <v>8.0373929999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1131.470000</v>
+        <v>1131.47</v>
       </c>
       <c r="BL15" s="1">
-        <v>-363.055000</v>
+        <v>-363.05500000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>28945.805887</v>
+        <v>28945.805886999999</v>
       </c>
       <c r="BO15" s="1">
         <v>8.040502</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.500000</v>
+        <v>1262.5</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-573.333000</v>
+        <v>-573.33299999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>28956.340449</v>
+        <v>28956.340448999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.043428</v>
+        <v>8.0434280000000005</v>
       </c>
       <c r="BU15" s="1">
-        <v>1409.530000</v>
+        <v>1409.53</v>
       </c>
       <c r="BV15" s="1">
-        <v>-797.862000</v>
+        <v>-797.86199999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>28967.531155</v>
+        <v>28967.531155000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.046536</v>
+        <v>8.0465359999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.540000</v>
+        <v>1571.54</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1032.290000</v>
+        <v>-1032.29</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>28980.289282</v>
+        <v>28980.289282000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.050080</v>
+        <v>8.0500799999999995</v>
       </c>
       <c r="CE15" s="1">
-        <v>1980.200000</v>
+        <v>1980.2</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1578.560000</v>
+        <v>-1578.56</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>28808.753334</v>
+        <v>28808.753334000001</v>
       </c>
       <c r="B16" s="1">
-        <v>8.002431</v>
+        <v>8.0024309999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>905.785000</v>
+        <v>905.78499999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.927000</v>
+        <v>-196.92699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>28819.191143</v>
@@ -4094,1902 +4510,1902 @@
         <v>8.005331</v>
       </c>
       <c r="H16" s="1">
-        <v>922.854000</v>
+        <v>922.85400000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.859000</v>
+        <v>-166.85900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>28829.678091</v>
+        <v>28829.678091000002</v>
       </c>
       <c r="L16" s="1">
-        <v>8.008244</v>
+        <v>8.0082439999999995</v>
       </c>
       <c r="M16" s="1">
-        <v>944.920000</v>
+        <v>944.92</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.430000</v>
+        <v>-119.43</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>28840.203659</v>
+        <v>28840.203658999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.011168</v>
+        <v>8.0111679999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>951.270000</v>
+        <v>951.27</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.820000</v>
+        <v>-103.82</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>28850.709453</v>
+        <v>28850.709452999999</v>
       </c>
       <c r="V16" s="1">
-        <v>8.014086</v>
+        <v>8.0140860000000007</v>
       </c>
       <c r="W16" s="1">
-        <v>957.685000</v>
+        <v>957.68499999999995</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.948400</v>
+        <v>-89.948400000000007</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>28861.210261</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.017003</v>
+        <v>8.0170030000000008</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.763000</v>
+        <v>964.76300000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.143500</v>
+        <v>-80.143500000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>28871.375730</v>
+        <v>28871.37573</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.019827</v>
+        <v>8.0198269999999994</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.658000</v>
+        <v>969.65800000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.774400</v>
+        <v>-79.7744</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>28881.232266</v>
+        <v>28881.232265999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.022565</v>
+        <v>8.0225650000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.516000</v>
+        <v>977.51599999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.419700</v>
+        <v>-87.419700000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>28891.674514</v>
+        <v>28891.674513999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.025465</v>
+        <v>8.0254650000000005</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.609000</v>
+        <v>986.60900000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>28902.041386</v>
+        <v>28902.041386000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.028345</v>
+        <v>8.0283449999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.945000</v>
+        <v>997.94500000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.708000</v>
+        <v>-123.708</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>28913.036700</v>
+        <v>28913.036700000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.031399</v>
+        <v>8.0313990000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.394000</v>
+        <v>-142.39400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>28924.053340</v>
+        <v>28924.053339999999</v>
       </c>
       <c r="BE16" s="1">
         <v>8.034459</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.460000</v>
+        <v>1052.46</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.042000</v>
+        <v>-227.042</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>28934.992142</v>
+        <v>28934.992141999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.037498</v>
+        <v>8.0374979999999994</v>
       </c>
       <c r="BK16" s="1">
-        <v>1131.480000</v>
+        <v>1131.48</v>
       </c>
       <c r="BL16" s="1">
-        <v>-363.026000</v>
+        <v>-363.02600000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>28946.225503</v>
+        <v>28946.225503000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.040618</v>
+        <v>8.0406180000000003</v>
       </c>
       <c r="BP16" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-573.371000</v>
+        <v>-573.37099999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>28956.753619</v>
+        <v>28956.753618999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.043543</v>
+        <v>8.0435429999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="BV16" s="1">
-        <v>-797.842000</v>
+        <v>-797.84199999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>28968.282130</v>
+        <v>28968.28213</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.046745</v>
+        <v>8.0467449999999996</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.650000</v>
+        <v>1571.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1032.280000</v>
+        <v>-1032.28</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>28980.507986</v>
+        <v>28980.507986000001</v>
       </c>
       <c r="CD16" s="1">
         <v>8.050141</v>
       </c>
       <c r="CE16" s="1">
-        <v>1980.490000</v>
+        <v>1980.49</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1578.620000</v>
+        <v>-1578.62</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>28809.096566</v>
       </c>
       <c r="B17" s="1">
-        <v>8.002527</v>
+        <v>8.0025270000000006</v>
       </c>
       <c r="C17" s="1">
-        <v>905.835000</v>
+        <v>905.83500000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.880000</v>
+        <v>-196.88</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>28819.536891</v>
       </c>
       <c r="G17" s="1">
-        <v>8.005427</v>
+        <v>8.0054269999999992</v>
       </c>
       <c r="H17" s="1">
-        <v>922.563000</v>
+        <v>922.56299999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.617000</v>
+        <v>-166.61699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>28830.109576</v>
+        <v>28830.109575999999</v>
       </c>
       <c r="L17" s="1">
-        <v>8.008364</v>
+        <v>8.0083640000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>944.778000</v>
+        <v>944.77800000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.093000</v>
+        <v>-119.093</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>28840.772074</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.011326</v>
+        <v>8.0113260000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>951.303000</v>
+        <v>951.303</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.791000</v>
+        <v>-103.791</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>28850.988670</v>
+        <v>28850.988669999999</v>
       </c>
       <c r="V17" s="1">
-        <v>8.014164</v>
+        <v>8.0141639999999992</v>
       </c>
       <c r="W17" s="1">
-        <v>957.656000</v>
+        <v>957.65599999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.966100</v>
+        <v>-89.966099999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>28861.558415</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.017100</v>
+        <v>8.0170999999999992</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.769000</v>
+        <v>964.76900000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.229300</v>
+        <v>-80.229299999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>28871.717474</v>
+        <v>28871.717474000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.019922</v>
+        <v>8.0199219999999993</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.649000</v>
+        <v>969.649</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.790400</v>
+        <v>-79.790400000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>28881.581449</v>
+        <v>28881.581449000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.022662</v>
+        <v>8.0226620000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.528000</v>
+        <v>977.52800000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.416200</v>
+        <v>-87.416200000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>28892.045048</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.025568</v>
+        <v>8.0255679999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.627000</v>
+        <v>986.62699999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.271000</v>
+        <v>-102.271</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>28902.777481</v>
+        <v>28902.777481000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.028549</v>
+        <v>8.0285489999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.936000</v>
+        <v>997.93600000000004</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.691000</v>
+        <v>-123.691</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>28913.414652</v>
+        <v>28913.414651999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>8.031504</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.490000</v>
+        <v>1007.49</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.390000</v>
+        <v>-142.38999999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>28924.439725</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.034567</v>
+        <v>8.0345669999999991</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.430000</v>
+        <v>1052.43</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.039000</v>
+        <v>-227.03899999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>28935.365598</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.037602</v>
+        <v>8.0376019999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1131.490000</v>
+        <v>1131.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-363.040000</v>
+        <v>-363.04</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>28946.937263</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.040816</v>
+        <v>8.0408159999999995</v>
       </c>
       <c r="BP17" s="1">
-        <v>1262.470000</v>
+        <v>1262.47</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-573.365000</v>
+        <v>-573.36500000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>28957.490177</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.043747</v>
+        <v>8.0437469999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1409.560000</v>
+        <v>1409.56</v>
       </c>
       <c r="BV17" s="1">
-        <v>-797.813000</v>
+        <v>-797.81299999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>28968.395186</v>
+        <v>28968.395186000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.046776</v>
+        <v>8.0467759999999995</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.670000</v>
+        <v>1571.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1032.540000</v>
+        <v>-1032.54</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>28981.028321</v>
+        <v>28981.028321000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.050286</v>
+        <v>8.0502859999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1979.450000</v>
+        <v>1979.45</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1579.860000</v>
+        <v>-1579.86</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>28809.436820</v>
+        <v>28809.436819999999</v>
       </c>
       <c r="B18" s="1">
-        <v>8.002621</v>
+        <v>8.0026209999999995</v>
       </c>
       <c r="C18" s="1">
-        <v>905.505000</v>
+        <v>905.505</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.856000</v>
+        <v>-196.85599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>28819.952502</v>
       </c>
       <c r="G18" s="1">
-        <v>8.005542</v>
+        <v>8.0055420000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>922.793000</v>
+        <v>922.79300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.077000</v>
+        <v>-167.077</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>28830.372494</v>
+        <v>28830.372493999999</v>
       </c>
       <c r="L18" s="1">
-        <v>8.008437</v>
+        <v>8.0084370000000007</v>
       </c>
       <c r="M18" s="1">
-        <v>944.754000</v>
+        <v>944.75400000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.298000</v>
+        <v>-119.298</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>28841.131674</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.011425</v>
+        <v>8.0114249999999991</v>
       </c>
       <c r="R18" s="1">
-        <v>951.302000</v>
+        <v>951.30200000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.781000</v>
+        <v>-103.78100000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>28851.330909</v>
       </c>
       <c r="V18" s="1">
-        <v>8.014259</v>
+        <v>8.0142589999999991</v>
       </c>
       <c r="W18" s="1">
-        <v>957.668000</v>
+        <v>957.66800000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.917700</v>
+        <v>-89.917699999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>28861.906112</v>
+        <v>28861.906112000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.017196</v>
+        <v>8.0171960000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.740000</v>
+        <v>964.74</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.206500</v>
+        <v>-80.206500000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>28872.060426</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.020017</v>
+        <v>8.0200169999999993</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.653000</v>
+        <v>969.65300000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.784400</v>
+        <v>-79.784400000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>28882.279312</v>
+        <v>28882.279311999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.022855</v>
+        <v>8.0228549999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.509000</v>
+        <v>977.50900000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.428200</v>
+        <v>-87.428200000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>28892.772150</v>
+        <v>28892.772150000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.025770</v>
+        <v>8.0257699999999996</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.634000</v>
+        <v>986.63400000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.268000</v>
+        <v>-102.268</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>28903.154440</v>
+        <v>28903.154439999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.028654</v>
+        <v>8.0286539999999995</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.935000</v>
+        <v>997.93499999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.709000</v>
+        <v>-123.709</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>28913.794586</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.031610</v>
+        <v>8.0316100000000006</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.500000</v>
+        <v>1007.5</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.396000</v>
+        <v>-142.39599999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>28924.802331</v>
+        <v>28924.802330999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.034667</v>
+        <v>8.0346670000000007</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.440000</v>
+        <v>1052.44</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.010000</v>
+        <v>-227.01</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>28936.052588</v>
+        <v>28936.052587999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.037792</v>
+        <v>8.0377919999999996</v>
       </c>
       <c r="BK18" s="1">
-        <v>1131.500000</v>
+        <v>1131.5</v>
       </c>
       <c r="BL18" s="1">
-        <v>-363.021000</v>
+        <v>-363.02100000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>28947.061758</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.040850</v>
+        <v>8.0408500000000007</v>
       </c>
       <c r="BP18" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-573.415000</v>
+        <v>-573.41499999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>28957.611698</v>
+        <v>28957.611698000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.043781</v>
+        <v>8.0437809999999992</v>
       </c>
       <c r="BU18" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="BV18" s="1">
-        <v>-797.820000</v>
+        <v>-797.82</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>28968.820755</v>
+        <v>28968.820755000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.046895</v>
+        <v>8.0468949999999992</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.730000</v>
+        <v>1571.73</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1032.410000</v>
+        <v>-1032.4100000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>28981.545122</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.050429</v>
+        <v>8.0504289999999994</v>
       </c>
       <c r="CE18" s="1">
-        <v>1979.370000</v>
+        <v>1979.37</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1579.140000</v>
+        <v>-1579.14</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>28809.860899</v>
+        <v>28809.860898999999</v>
       </c>
       <c r="B19" s="1">
         <v>8.002739</v>
       </c>
       <c r="C19" s="1">
-        <v>905.710000</v>
+        <v>905.71</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.938000</v>
+        <v>-196.93799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>28820.225830</v>
+        <v>28820.225829999999</v>
       </c>
       <c r="G19" s="1">
-        <v>8.005618</v>
+        <v>8.0056180000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>922.620000</v>
+        <v>922.62</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.680000</v>
+        <v>-166.68</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>28830.714207</v>
+        <v>28830.714207000001</v>
       </c>
       <c r="L19" s="1">
-        <v>8.008532</v>
+        <v>8.0085320000000007</v>
       </c>
       <c r="M19" s="1">
-        <v>945.022000</v>
+        <v>945.02200000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.260000</v>
+        <v>-119.26</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>28841.477417</v>
+        <v>28841.477416999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.011522</v>
+        <v>8.0115219999999994</v>
       </c>
       <c r="R19" s="1">
-        <v>951.351000</v>
+        <v>951.351</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.801000</v>
+        <v>-103.801</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>28851.673681</v>
       </c>
       <c r="V19" s="1">
-        <v>8.014354</v>
+        <v>8.0143540000000009</v>
       </c>
       <c r="W19" s="1">
-        <v>957.664000</v>
+        <v>957.66399999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.974600</v>
+        <v>-89.974599999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>28862.606957</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.017391</v>
+        <v>8.0173909999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.720000</v>
+        <v>964.72</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.307800</v>
+        <v>-80.3078</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>28872.747664</v>
+        <v>28872.747663999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.020208</v>
+        <v>8.0202080000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.647000</v>
+        <v>969.64700000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.746900</v>
+        <v>-79.746899999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>28882.628467</v>
+        <v>28882.628466999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.022952</v>
+        <v>8.0229520000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.541000</v>
+        <v>977.54100000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.438200</v>
+        <v>-87.438199999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>28893.149638</v>
+        <v>28893.149637999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.025875</v>
+        <v>8.0258749999999992</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.644000</v>
+        <v>986.64400000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>28903.523432</v>
+        <v>28903.523432000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.028757</v>
+        <v>8.0287570000000006</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.908000</v>
+        <v>997.90800000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.700000</v>
+        <v>-123.7</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>28914.470169</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.031797</v>
+        <v>8.0317969999999992</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.368000</v>
+        <v>-142.36799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>28925.484795</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.034857</v>
+        <v>8.0348570000000006</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.420000</v>
+        <v>1052.42</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.013000</v>
+        <v>-227.01300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>28936.524253</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.037923</v>
+        <v>8.0379229999999993</v>
       </c>
       <c r="BK19" s="1">
-        <v>1131.470000</v>
+        <v>1131.47</v>
       </c>
       <c r="BL19" s="1">
-        <v>-363.038000</v>
+        <v>-363.03800000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>28947.472445</v>
+        <v>28947.472444999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.040965</v>
+        <v>8.0409649999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1262.470000</v>
+        <v>1262.47</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-573.376000</v>
+        <v>-573.37599999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>28958.025328</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.043896</v>
+        <v>8.0438960000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1409.580000</v>
+        <v>1409.58</v>
       </c>
       <c r="BV19" s="1">
-        <v>-797.823000</v>
+        <v>-797.82299999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>28969.239378</v>
+        <v>28969.239377999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.047011</v>
+        <v>8.0470109999999995</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.680000</v>
+        <v>1571.68</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1032.360000</v>
+        <v>-1032.3599999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>28982.100154</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.050583</v>
+        <v>8.0505829999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>1981.110000</v>
+        <v>1981.11</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1578.480000</v>
+        <v>-1578.48</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>28810.137171</v>
+        <v>28810.137170999998</v>
       </c>
       <c r="B20" s="1">
-        <v>8.002816</v>
+        <v>8.0028159999999993</v>
       </c>
       <c r="C20" s="1">
-        <v>905.700000</v>
+        <v>905.7</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.889000</v>
+        <v>-196.88900000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>28820.569558</v>
+        <v>28820.569557999999</v>
       </c>
       <c r="G20" s="1">
-        <v>8.005714</v>
+        <v>8.0057139999999993</v>
       </c>
       <c r="H20" s="1">
-        <v>922.832000</v>
+        <v>922.83199999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.626000</v>
+        <v>-166.626</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>28831.062887</v>
       </c>
       <c r="L20" s="1">
-        <v>8.008629</v>
+        <v>8.0086290000000009</v>
       </c>
       <c r="M20" s="1">
-        <v>944.952000</v>
+        <v>944.952</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.392000</v>
+        <v>-119.392</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>28841.828090</v>
+        <v>28841.828089999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.011619</v>
+        <v>8.0116189999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>951.358000</v>
+        <v>951.35799999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.864000</v>
+        <v>-103.864</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>28852.359117</v>
       </c>
       <c r="V20" s="1">
-        <v>8.014544</v>
+        <v>8.0145440000000008</v>
       </c>
       <c r="W20" s="1">
-        <v>957.676000</v>
+        <v>957.67600000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.936700</v>
+        <v>-89.936700000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>28862.953207</v>
+        <v>28862.953206999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.017487</v>
+        <v>8.0174869999999991</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.837000</v>
+        <v>964.83699999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.218800</v>
+        <v>-80.218800000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>28873.091889</v>
+        <v>28873.091888999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.020303</v>
+        <v>8.0203030000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.642000</v>
+        <v>969.64200000000005</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.791300</v>
+        <v>-79.791300000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>28882.977651</v>
+        <v>28882.977651000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.023049</v>
+        <v>8.0230490000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.525000</v>
+        <v>977.52499999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.418800</v>
+        <v>-87.418800000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>28893.496805</v>
+        <v>28893.496804999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.025971</v>
+        <v>8.0259710000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.627000</v>
+        <v>986.62699999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.270000</v>
+        <v>-102.27</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>28904.204935</v>
+        <v>28904.204935000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.028946</v>
+        <v>8.0289459999999995</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.936000</v>
+        <v>997.93600000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.697000</v>
+        <v>-123.697</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>28914.874873</v>
+        <v>28914.874873000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.031910</v>
+        <v>8.0319099999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.369000</v>
+        <v>-142.369</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>28925.913338</v>
+        <v>28925.913337999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.034976</v>
+        <v>8.0349760000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.009000</v>
+        <v>-227.00899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>28936.915596</v>
+        <v>28936.915595999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.038032</v>
+        <v>8.0380319999999994</v>
       </c>
       <c r="BK20" s="1">
-        <v>1131.480000</v>
+        <v>1131.48</v>
       </c>
       <c r="BL20" s="1">
-        <v>-363.025000</v>
+        <v>-363.02499999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>28947.866802</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.041074</v>
+        <v>8.0410740000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-573.352000</v>
+        <v>-573.35199999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>28958.458831</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.044016</v>
+        <v>8.0440159999999992</v>
       </c>
       <c r="BU20" s="1">
-        <v>1409.530000</v>
+        <v>1409.53</v>
       </c>
       <c r="BV20" s="1">
-        <v>-797.847000</v>
+        <v>-797.84699999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>28969.685078</v>
+        <v>28969.685077999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.047135</v>
+        <v>8.0471350000000008</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.660000</v>
+        <v>1571.66</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1032.440000</v>
+        <v>-1032.44</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>28982.627391</v>
+        <v>28982.627391000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.050730</v>
+        <v>8.0507299999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>1979.670000</v>
+        <v>1979.67</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1579.090000</v>
+        <v>-1579.09</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>28810.480899</v>
+        <v>28810.480898999998</v>
       </c>
       <c r="B21" s="1">
-        <v>8.002911</v>
+        <v>8.0029109999999992</v>
       </c>
       <c r="C21" s="1">
-        <v>905.866000</v>
+        <v>905.86599999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.914000</v>
+        <v>-196.91399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>28820.915032</v>
+        <v>28820.915032000001</v>
       </c>
       <c r="G21" s="1">
-        <v>8.005810</v>
+        <v>8.0058100000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>921.870000</v>
+        <v>921.87</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.905000</v>
+        <v>-166.905</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>28831.755337</v>
+        <v>28831.755336999999</v>
       </c>
       <c r="L21" s="1">
-        <v>8.008821</v>
+        <v>8.0088209999999993</v>
       </c>
       <c r="M21" s="1">
-        <v>944.999000</v>
+        <v>944.99900000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.083000</v>
+        <v>-119.083</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>28842.522985</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.011812</v>
+        <v>8.0118120000000008</v>
       </c>
       <c r="R21" s="1">
-        <v>951.298000</v>
+        <v>951.298</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.857000</v>
+        <v>-103.857</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>28852.701356</v>
+        <v>28852.701356000001</v>
       </c>
       <c r="V21" s="1">
-        <v>8.014639</v>
+        <v>8.0146390000000007</v>
       </c>
       <c r="W21" s="1">
-        <v>957.654000</v>
+        <v>957.654</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.880400</v>
+        <v>-89.880399999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>28863.300860</v>
+        <v>28863.300859999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.017584</v>
+        <v>8.0175839999999994</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.752000</v>
+        <v>964.75199999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.214400</v>
+        <v>-80.214399999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>28873.435121</v>
+        <v>28873.435120999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.020399</v>
+        <v>8.0203989999999994</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.635000</v>
+        <v>969.63499999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.804500</v>
+        <v>-79.804500000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>28883.633884</v>
+        <v>28883.633883999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.023232</v>
+        <v>8.0232320000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.530000</v>
+        <v>977.53</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.425400</v>
+        <v>-87.425399999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>28894.120314</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.026145</v>
+        <v>8.0261449999999996</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.641000</v>
+        <v>986.64099999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.249000</v>
+        <v>-102.249</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>28904.643894</v>
+        <v>28904.643894000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.029068</v>
+        <v>8.0290680000000005</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.927000</v>
+        <v>997.92700000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.734000</v>
+        <v>-123.73399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>28915.251865</v>
+        <v>28915.251864999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.032014</v>
+        <v>8.0320140000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.490000</v>
+        <v>1007.49</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.351000</v>
+        <v>-142.351</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>28926.311131</v>
+        <v>28926.311130999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.035086</v>
+        <v>8.0350859999999997</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.013000</v>
+        <v>-227.01300000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>28937.293051</v>
+        <v>28937.293051000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.038137</v>
+        <v>8.0381370000000008</v>
       </c>
       <c r="BK21" s="1">
-        <v>1131.500000</v>
+        <v>1131.5</v>
       </c>
       <c r="BL21" s="1">
-        <v>-363.057000</v>
+        <v>-363.05700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>28948.302749</v>
+        <v>28948.302748999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.041195</v>
+        <v>8.0411950000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.510000</v>
+        <v>1262.51</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-573.358000</v>
+        <v>-573.35799999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>28958.921104</v>
+        <v>28958.921104000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.044145</v>
+        <v>8.0441450000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1409.520000</v>
+        <v>1409.52</v>
       </c>
       <c r="BV21" s="1">
-        <v>-797.829000</v>
+        <v>-797.82899999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>28970.108863</v>
+        <v>28970.108863000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.047252</v>
+        <v>8.0472520000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1571.690000</v>
+        <v>1571.69</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1032.400000</v>
+        <v>-1032.4000000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>28983.147233</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.050874</v>
+        <v>8.0508740000000003</v>
       </c>
       <c r="CE21" s="1">
-        <v>1981.110000</v>
+        <v>1981.11</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1580.170000</v>
+        <v>-1580.17</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>28810.821186</v>
+        <v>28810.821186000001</v>
       </c>
       <c r="B22" s="1">
-        <v>8.003006</v>
+        <v>8.0030059999999992</v>
       </c>
       <c r="C22" s="1">
-        <v>905.720000</v>
+        <v>905.72</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.997000</v>
+        <v>-196.99700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>28821.604181</v>
+        <v>28821.604180999999</v>
       </c>
       <c r="G22" s="1">
-        <v>8.006001</v>
+        <v>8.0060009999999995</v>
       </c>
       <c r="H22" s="1">
-        <v>922.972000</v>
+        <v>922.97199999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.949000</v>
+        <v>-166.94900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>28832.104019</v>
+        <v>28832.104018999999</v>
       </c>
       <c r="L22" s="1">
-        <v>8.008918</v>
+        <v>8.0089179999999995</v>
       </c>
       <c r="M22" s="1">
-        <v>944.717000</v>
+        <v>944.71699999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.345000</v>
+        <v>-119.345</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>28842.874120</v>
+        <v>28842.87412</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.011909</v>
+        <v>8.0119089999999993</v>
       </c>
       <c r="R22" s="1">
-        <v>951.289000</v>
+        <v>951.28899999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.828000</v>
+        <v>-103.828</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>28853.046074</v>
+        <v>28853.046074000002</v>
       </c>
       <c r="V22" s="1">
-        <v>8.014735</v>
+        <v>8.0147349999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>957.751000</v>
+        <v>957.75099999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.936600</v>
+        <v>-89.936599999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>28863.966990</v>
+        <v>28863.966990000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.017769</v>
+        <v>8.0177689999999995</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.744000</v>
+        <v>964.74400000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.253300</v>
+        <v>-80.253299999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>28874.091327</v>
+        <v>28874.091326999998</v>
       </c>
       <c r="AF22" s="1">
         <v>8.020581</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.652000</v>
+        <v>969.65200000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.772200</v>
+        <v>-79.772199999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>28884.022257</v>
+        <v>28884.022257000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.023340</v>
+        <v>8.0233399999999993</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.518000</v>
+        <v>977.51800000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.415100</v>
+        <v>-87.415099999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>28894.230886</v>
+        <v>28894.230886000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.026175</v>
+        <v>8.0261750000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.628000</v>
+        <v>986.62800000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.270000</v>
+        <v>-102.27</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>28905.006506</v>
+        <v>28905.006506000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.029168</v>
+        <v>8.0291680000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.937000</v>
+        <v>997.93700000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.685000</v>
+        <v>-123.685</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>28915.629288</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.032119</v>
+        <v>8.0321189999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.385000</v>
+        <v>-142.38499999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>28926.897939</v>
+        <v>28926.897938999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.035249</v>
+        <v>8.0352490000000003</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.460000</v>
+        <v>1052.46</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.016000</v>
+        <v>-227.01599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>28937.716634</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.038255</v>
+        <v>8.0382549999999995</v>
       </c>
       <c r="BK22" s="1">
-        <v>1131.450000</v>
+        <v>1131.45</v>
       </c>
       <c r="BL22" s="1">
-        <v>-363.045000</v>
+        <v>-363.04500000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>28948.687644</v>
+        <v>28948.687644000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.041302</v>
+        <v>8.0413019999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1262.490000</v>
+        <v>1262.49</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-573.351000</v>
+        <v>-573.351</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>28959.295123</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.044249</v>
+        <v>8.0442490000000006</v>
       </c>
       <c r="BU22" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="BV22" s="1">
-        <v>-797.834000</v>
+        <v>-797.83399999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>28970.530494</v>
+        <v>28970.530493999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.047370</v>
+        <v>8.0473700000000008</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.790000</v>
+        <v>1571.79</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1032.550000</v>
+        <v>-1032.55</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>28983.685886</v>
+        <v>28983.685885999999</v>
       </c>
       <c r="CD22" s="1">
         <v>8.051024</v>
       </c>
       <c r="CE22" s="1">
-        <v>1980.130000</v>
+        <v>1980.13</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1578.430000</v>
+        <v>-1578.43</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>28811.505635</v>
+        <v>28811.505635000001</v>
       </c>
       <c r="B23" s="1">
-        <v>8.003196</v>
+        <v>8.0031960000000009</v>
       </c>
       <c r="C23" s="1">
-        <v>905.673000</v>
+        <v>905.673</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.930000</v>
+        <v>-196.93</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>28821.950419</v>
+        <v>28821.950419000001</v>
       </c>
       <c r="G23" s="1">
-        <v>8.006097</v>
+        <v>8.0060970000000005</v>
       </c>
       <c r="H23" s="1">
-        <v>922.599000</v>
+        <v>922.59900000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.584000</v>
+        <v>-166.584</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>28832.445267</v>
+        <v>28832.445266999999</v>
       </c>
       <c r="L23" s="1">
-        <v>8.009013</v>
+        <v>8.0090129999999995</v>
       </c>
       <c r="M23" s="1">
-        <v>944.983000</v>
+        <v>944.98299999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.146000</v>
+        <v>-119.146</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>28843.222840</v>
+        <v>28843.222839999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.012006</v>
+        <v>8.0120059999999995</v>
       </c>
       <c r="R23" s="1">
-        <v>951.286000</v>
+        <v>951.28599999999994</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.812000</v>
+        <v>-103.812</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>28853.701290</v>
+        <v>28853.701290000001</v>
       </c>
       <c r="V23" s="1">
-        <v>8.014917</v>
+        <v>8.0149170000000005</v>
       </c>
       <c r="W23" s="1">
-        <v>957.682000</v>
+        <v>957.68200000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.925100</v>
+        <v>-89.9251</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>28864.346427</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.017874</v>
+        <v>8.0178740000000008</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.769000</v>
+        <v>964.76900000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.263700</v>
+        <v>-80.2637</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>28874.462334</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.020684</v>
+        <v>8.0206839999999993</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.638000</v>
+        <v>969.63800000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.788600</v>
+        <v>-79.788600000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>28884.367969</v>
+        <v>28884.367968999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.023436</v>
+        <v>8.0234360000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.520000</v>
+        <v>977.52</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.443400</v>
+        <v>-87.443399999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>28894.589989</v>
@@ -5998,906 +6414,907 @@
         <v>8.026275</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.647000</v>
+        <v>986.64700000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.257000</v>
+        <v>-102.25700000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>28905.374997</v>
+        <v>28905.374996999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.029271</v>
+        <v>8.0292709999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.914000</v>
+        <v>997.91399999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.722000</v>
+        <v>-123.72199999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>28916.045465</v>
+        <v>28916.045464999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>8.032235</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.372000</v>
+        <v>-142.37200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>28927.009498</v>
+        <v>28927.009497999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.035280</v>
+        <v>8.0352800000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.450000</v>
+        <v>1052.45</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.036000</v>
+        <v>-227.036</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>28938.040026</v>
+        <v>28938.040025999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.038344</v>
+        <v>8.0383440000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1131.470000</v>
+        <v>1131.47</v>
       </c>
       <c r="BL23" s="1">
-        <v>-363.023000</v>
+        <v>-363.02300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>28949.106299</v>
+        <v>28949.106298999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.041418</v>
+        <v>8.0414180000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.490000</v>
+        <v>1262.49</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-573.361000</v>
+        <v>-573.36099999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>28959.728093</v>
+        <v>28959.728093000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.044369</v>
+        <v>8.0443689999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1409.510000</v>
+        <v>1409.51</v>
       </c>
       <c r="BV23" s="1">
-        <v>-797.775000</v>
+        <v>-797.77499999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>28970.976863</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.047494</v>
+        <v>8.0474940000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.680000</v>
+        <v>1571.68</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1032.290000</v>
+        <v>-1032.29</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>28984.225997</v>
+        <v>28984.225997000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.051174</v>
+        <v>8.0511739999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>1980.550000</v>
+        <v>1980.55</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1580.500000</v>
+        <v>-1580.5</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>28811.846385</v>
+        <v>28811.846385000001</v>
       </c>
       <c r="B24" s="1">
-        <v>8.003291</v>
+        <v>8.0032910000000008</v>
       </c>
       <c r="C24" s="1">
-        <v>905.790000</v>
+        <v>905.79</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.018000</v>
+        <v>-197.018</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>28822.295603</v>
+        <v>28822.295602999999</v>
       </c>
       <c r="G24" s="1">
-        <v>8.006193</v>
+        <v>8.0061929999999997</v>
       </c>
       <c r="H24" s="1">
-        <v>922.765000</v>
+        <v>922.76499999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.772000</v>
+        <v>-166.77199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>28833.100484</v>
+        <v>28833.100483999999</v>
       </c>
       <c r="L24" s="1">
-        <v>8.009195</v>
+        <v>8.0091950000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>944.834000</v>
+        <v>944.83399999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.276000</v>
+        <v>-119.276</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>28843.898400</v>
+        <v>28843.898399999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.012194</v>
+        <v>8.0121939999999991</v>
       </c>
       <c r="R24" s="1">
-        <v>951.342000</v>
+        <v>951.34199999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.829000</v>
+        <v>-103.82899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>28854.076761</v>
       </c>
       <c r="V24" s="1">
-        <v>8.015021</v>
+        <v>8.0150210000000008</v>
       </c>
       <c r="W24" s="1">
-        <v>957.574000</v>
+        <v>957.57399999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.935700</v>
+        <v>-89.935699999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>28864.694626</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.017971</v>
+        <v>8.0179709999999993</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.784000</v>
+        <v>964.78399999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.259200</v>
+        <v>-80.259200000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>28874.810233</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.020781</v>
+        <v>8.0207809999999995</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.700000</v>
+        <v>969.7</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.761700</v>
+        <v>-79.761700000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>28884.720097</v>
+        <v>28884.720097000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.023533</v>
+        <v>8.0235330000000005</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.510000</v>
+        <v>977.51</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.410700</v>
+        <v>-87.410700000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>28895.039860</v>
+        <v>28895.039860000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.026400</v>
+        <v>8.0264000000000006</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.640000</v>
+        <v>986.64</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>28905.805524</v>
+        <v>28905.805523999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.029390</v>
+        <v>8.0293899999999994</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.924000</v>
+        <v>997.92399999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.712000</v>
+        <v>-123.712</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>28916.348983</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.032319</v>
+        <v>8.0323189999999993</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.510000</v>
+        <v>1007.51</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.379000</v>
+        <v>-142.37899999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>28927.357688</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.035377</v>
+        <v>8.0353770000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.440000</v>
+        <v>1052.44</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.027000</v>
+        <v>-227.02699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>28938.424955</v>
+        <v>28938.424954999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.038451</v>
+        <v>8.0384510000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1131.500000</v>
+        <v>1131.5</v>
       </c>
       <c r="BL24" s="1">
-        <v>-363.050000</v>
+        <v>-363.05</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>28949.504555</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.041529</v>
+        <v>8.0415290000000006</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.470000</v>
+        <v>1262.47</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-573.334000</v>
+        <v>-573.33399999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>28960.158124</v>
+        <v>28960.158124000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.044488</v>
+        <v>8.0444879999999994</v>
       </c>
       <c r="BU24" s="1">
-        <v>1409.500000</v>
+        <v>1409.5</v>
       </c>
       <c r="BV24" s="1">
-        <v>-797.814000</v>
+        <v>-797.81399999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>28971.410895</v>
+        <v>28971.410895000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.047614</v>
+        <v>8.0476139999999994</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.580000</v>
+        <v>1571.58</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1032.460000</v>
+        <v>-1032.46</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>28984.767132</v>
+        <v>28984.767132000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.051324</v>
+        <v>8.0513239999999993</v>
       </c>
       <c r="CE24" s="1">
-        <v>1980.990000</v>
+        <v>1980.99</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1578.830000</v>
+        <v>-1578.83</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>28812.508084</v>
+        <v>28812.508084000001</v>
       </c>
       <c r="B25" s="1">
-        <v>8.003474</v>
+        <v>8.0034740000000006</v>
       </c>
       <c r="C25" s="1">
-        <v>905.571000</v>
+        <v>905.57100000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.919000</v>
+        <v>-196.91900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>28822.951810</v>
+        <v>28822.951809999999</v>
       </c>
       <c r="G25" s="1">
-        <v>8.006376</v>
+        <v>8.0063759999999995</v>
       </c>
       <c r="H25" s="1">
-        <v>922.752000</v>
+        <v>922.75199999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.608000</v>
+        <v>-166.608</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>28833.486836</v>
       </c>
       <c r="L25" s="1">
-        <v>8.009302</v>
+        <v>8.0093019999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>944.673000</v>
+        <v>944.673</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.216000</v>
+        <v>-119.21599999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>28844.357690</v>
+        <v>28844.357690000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.012322</v>
+        <v>8.0123219999999993</v>
       </c>
       <c r="R25" s="1">
-        <v>951.302000</v>
+        <v>951.30200000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.812000</v>
+        <v>-103.812</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>28854.420986</v>
+        <v>28854.420986000001</v>
       </c>
       <c r="V25" s="1">
         <v>8.015117</v>
       </c>
       <c r="W25" s="1">
-        <v>957.657000</v>
+        <v>957.65700000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.876500</v>
+        <v>-89.876499999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>28865.046283</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.018068</v>
+        <v>8.0180679999999995</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.754000</v>
+        <v>964.75400000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.262200</v>
+        <v>-80.262200000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>28875.160703</v>
+        <v>28875.160703000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.020878</v>
+        <v>8.0208779999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.691000</v>
+        <v>969.69100000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.787300</v>
+        <v>-79.787300000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>28885.139743</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.023650</v>
+        <v>8.0236499999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.516000</v>
+        <v>977.51599999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.428600</v>
+        <v>-87.428600000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>28895.312659</v>
+        <v>28895.312658999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.026476</v>
+        <v>8.0264760000000006</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.629000</v>
+        <v>986.62900000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>28906.101669</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.029473</v>
+        <v>8.0294729999999994</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.906000</v>
+        <v>997.90599999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.714000</v>
+        <v>-123.714</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>28916.706598</v>
+        <v>28916.706598000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.032418</v>
+        <v>8.0324179999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.400000</v>
+        <v>-142.4</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>28927.719800</v>
+        <v>28927.719799999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.035478</v>
+        <v>8.0354779999999995</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.470000</v>
+        <v>1052.47</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.010000</v>
+        <v>-227.01</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>28938.813818</v>
+        <v>28938.813817999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.038559</v>
+        <v>8.0385589999999993</v>
       </c>
       <c r="BK25" s="1">
-        <v>1131.490000</v>
+        <v>1131.49</v>
       </c>
       <c r="BL25" s="1">
-        <v>-363.031000</v>
+        <v>-363.03100000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>28949.935593</v>
+        <v>28949.935592999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.041649</v>
+        <v>8.0416489999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1262.480000</v>
+        <v>1262.48</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-573.346000</v>
+        <v>-573.346</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>28960.555421</v>
+        <v>28960.555421000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.044599</v>
+        <v>8.0445989999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1409.500000</v>
+        <v>1409.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-797.813000</v>
+        <v>-797.81299999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>28971.830975</v>
+        <v>28971.830975000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.047731</v>
+        <v>8.0477310000000006</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1032.340000</v>
+        <v>-1032.3399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>28985.309259</v>
+        <v>28985.309259000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.051475</v>
+        <v>8.0514749999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1979.320000</v>
+        <v>1979.32</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1579.560000</v>
+        <v>-1579.56</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>28812.868639</v>
       </c>
       <c r="B26" s="1">
-        <v>8.003575</v>
+        <v>8.0035749999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>905.511000</v>
+        <v>905.51099999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.863000</v>
+        <v>-196.863</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>28823.327777</v>
+        <v>28823.327776999999</v>
       </c>
       <c r="G26" s="1">
-        <v>8.006480</v>
+        <v>8.0064799999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>922.705000</v>
+        <v>922.70500000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.640000</v>
+        <v>-166.64</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>28833.828084</v>
+        <v>28833.828084000001</v>
       </c>
       <c r="L26" s="1">
-        <v>8.009397</v>
+        <v>8.0093969999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>944.763000</v>
+        <v>944.76300000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.461000</v>
+        <v>-119.461</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>28844.616604</v>
+        <v>28844.616603999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.012394</v>
+        <v>8.0123940000000005</v>
       </c>
       <c r="R26" s="1">
-        <v>951.326000</v>
+        <v>951.32600000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.858000</v>
+        <v>-103.858</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>28854.773144</v>
+        <v>28854.773143999999</v>
       </c>
       <c r="V26" s="1">
-        <v>8.015215</v>
+        <v>8.0152149999999995</v>
       </c>
       <c r="W26" s="1">
-        <v>957.605000</v>
+        <v>957.60500000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.954300</v>
+        <v>-89.954300000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>28865.475818</v>
+        <v>28865.475817999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.018188</v>
+        <v>8.0181880000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.719000</v>
+        <v>964.71900000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.309400</v>
+        <v>-80.309399999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>28875.587297</v>
+        <v>28875.587296999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.020996</v>
+        <v>8.0209960000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.675000</v>
+        <v>969.67499999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.754600</v>
+        <v>-79.754599999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>28885.427887</v>
+        <v>28885.427887000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.023730</v>
+        <v>8.0237300000000005</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.531000</v>
+        <v>977.53099999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.420500</v>
+        <v>-87.420500000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>28895.671280</v>
+        <v>28895.671279999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.026575</v>
+        <v>8.0265749999999993</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.650000</v>
+        <v>986.65</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.273000</v>
+        <v>-102.273</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>28906.469667</v>
+        <v>28906.469667000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.029575</v>
+        <v>8.0295749999999995</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.937000</v>
+        <v>997.93700000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.711000</v>
+        <v>-123.711</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>28917.066694</v>
+        <v>28917.066694000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.032519</v>
+        <v>8.0325190000000006</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.480000</v>
+        <v>1007.48</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.371000</v>
+        <v>-142.37100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>28928.439986</v>
+        <v>28928.439986000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.035678</v>
+        <v>8.0356780000000008</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.460000</v>
+        <v>1052.46</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.039000</v>
+        <v>-227.03899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>28939.562280</v>
+        <v>28939.562279999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>8.038767</v>
       </c>
       <c r="BK26" s="1">
-        <v>1131.500000</v>
+        <v>1131.5</v>
       </c>
       <c r="BL26" s="1">
-        <v>-363.008000</v>
+        <v>-363.00799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>28950.323947</v>
+        <v>28950.323947000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.041757</v>
+        <v>8.0417570000000005</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.490000</v>
+        <v>1262.49</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-573.345000</v>
+        <v>-573.34500000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>28960.997355</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.044721</v>
+        <v>8.0447209999999991</v>
       </c>
       <c r="BU26" s="1">
-        <v>1409.480000</v>
+        <v>1409.48</v>
       </c>
       <c r="BV26" s="1">
-        <v>-797.765000</v>
+        <v>-797.76499999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>28972.254062</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.047848</v>
+        <v>8.0478480000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.620000</v>
+        <v>1571.62</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1032.310000</v>
+        <v>-1032.31</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>28986.163866</v>
+        <v>28986.163865999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.051712</v>
+        <v>8.0517120000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1981.120000</v>
+        <v>1981.12</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1578.430000</v>
+        <v>-1578.43</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>